--- a/17- Análise de Eventos para cada Cenário.xlsx
+++ b/17- Análise de Eventos para cada Cenário.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bixdi\Desktop\salada de pepino\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Capacidade</t>
   </si>
@@ -108,20 +113,29 @@
     <t>x(6)</t>
   </si>
   <si>
-    <t>Finalização da venda</t>
-  </si>
-  <si>
     <t>EXTERNO</t>
   </si>
   <si>
     <t>TEMPORAL</t>
+  </si>
+  <si>
+    <t>Finalização do pedido</t>
+  </si>
+  <si>
+    <t>OBS: Estamos na dúvida se o evento 10</t>
+  </si>
+  <si>
+    <t>poderia entrar como um não-evento</t>
+  </si>
+  <si>
+    <t>de falha, ao invés de entrar em FA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -292,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,76 +323,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,9 +481,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,6 +516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -660,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
@@ -676,18 +708,19 @@
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="E1" s="27" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,227 +750,245 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="12">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="12">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="12">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="12">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="14">
         <v>7</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="9">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="28">
+        <v>10</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="9">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12">
-        <v>9</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12">
-        <v>11</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="26"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -952,24 +1003,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/17- Análise de Eventos para cada Cenário.xlsx
+++ b/17- Análise de Eventos para cada Cenário.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bixdi\Desktop\salada de pepino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisson A. Alves\Desktop\Faculdade\2º Semestre\Engenharia de Software\Nossos_artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17BD08A-95FE-4CF3-8C79-EBB660CBA604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Capacidade</t>
   </si>
@@ -56,85 +57,37 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Cliente solicita catálogo de produtos</t>
-  </si>
-  <si>
-    <t>Gráfica disponibliza catálogo</t>
-  </si>
-  <si>
-    <t>Cliente escolhe o produto</t>
-  </si>
-  <si>
-    <t>Cliente efetua o pagamento do pedido</t>
-  </si>
-  <si>
-    <t>Gráfica recebe o pagamento</t>
-  </si>
-  <si>
-    <t>Cliente recebe o produto</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>Cliente cancela pedido</t>
-  </si>
-  <si>
-    <t>Cliente devolve o produto</t>
-  </si>
-  <si>
-    <t>Gráfica não recebeu o pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produto indisponível </t>
-  </si>
-  <si>
-    <t>Cliente quer um produto personalizado</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>x(1)</t>
-  </si>
-  <si>
     <t>x(3)</t>
   </si>
   <si>
-    <t>x(4)</t>
-  </si>
-  <si>
-    <t>x(2)</t>
-  </si>
-  <si>
-    <t>x(5)</t>
-  </si>
-  <si>
-    <t>x(6)</t>
-  </si>
-  <si>
     <t>EXTERNO</t>
   </si>
   <si>
     <t>TEMPORAL</t>
   </si>
   <si>
-    <t>Finalização do pedido</t>
-  </si>
-  <si>
-    <t>OBS: Estamos na dúvida se o evento 10</t>
-  </si>
-  <si>
-    <t>poderia entrar como um não-evento</t>
-  </si>
-  <si>
-    <t>de falha, ao invés de entrar em FA.</t>
+    <t>Cliente solicita produto</t>
+  </si>
+  <si>
+    <t>Cliente solicita serviços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gráfica trata o pagamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente retira produto </t>
+  </si>
+  <si>
+    <t>x(1,2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,19 +192,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -277,22 +217,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -303,7 +243,20 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -312,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,23 +276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,46 +286,38 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +338,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -447,7 +376,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -482,6 +411,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -517,9 +463,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -692,11 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,26 +672,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="10"/>
+      <c r="E1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -751,250 +713,91 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="9">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="9">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="9">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="9">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="14">
-        <v>7</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="9">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="28">
-        <v>10</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="9">
-        <v>11</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="9">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
@@ -1003,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1015,7 +818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/17- Análise de Eventos para cada Cenário.xlsx
+++ b/17- Análise de Eventos para cada Cenário.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\maria capitolina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisson A. Alves\Desktop\Faculdade\2º Semestre\Engenharia de Software\Nossos_artefatos\Engenharia_de_software-TPD_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D940F0C2-F251-4772-AC60-717E77274F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340267C8-11AD-4337-99A3-1A7BE1E5471C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Externo</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Cliente não retorna sobre pagamento e data de retirada</t>
-  </si>
-  <si>
-    <t>x(5)</t>
   </si>
   <si>
     <t>Cliente realiza pedido</t>
@@ -145,16 +142,37 @@
     <t>Parceiro envia produto de encomenda</t>
   </si>
   <si>
-    <t>x(8)</t>
-  </si>
-  <si>
-    <t>x(9)</t>
-  </si>
-  <si>
-    <t>x(12)</t>
-  </si>
-  <si>
     <t>x(11)</t>
+  </si>
+  <si>
+    <t>x(10)</t>
+  </si>
+  <si>
+    <t>x(13)</t>
+  </si>
+  <si>
+    <t>x(14)</t>
+  </si>
+  <si>
+    <t>Receber retorno do 
+provedor de cartão</t>
+  </si>
+  <si>
+    <t>Receber retorno do 
+parceiro em relação 
+à data de entrega</t>
+  </si>
+  <si>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>x(6)</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
+    <t>x(16)</t>
   </si>
 </sst>
 </file>
@@ -311,19 +329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -368,6 +373,19 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -375,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +426,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,43 +456,55 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +806,12 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="11" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -784,15 +819,15 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,10 +861,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5">
@@ -848,8 +883,8 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -866,8 +901,8 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="5">
         <v>3</v>
       </c>
@@ -884,8 +919,8 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="5">
@@ -903,181 +938,179 @@
       <c r="J7" s="10"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="5">
+    <row r="8" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="22">
         <v>5</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="E8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
+    <row r="9" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="5">
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="5">
+    <row r="10" spans="2:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="22">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="E10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="32" t="s">
+    <row r="11" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12">
-        <v>8</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="12">
-        <v>9</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="32"/>
       <c r="D13" s="12">
         <v>10</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="2:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="12">
         <v>11</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>23</v>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="12">
         <v>12</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="E15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="12">
         <v>13</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>28</v>
+      <c r="E16" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="G16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="12">
         <v>14</v>
       </c>
@@ -1085,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
@@ -1093,34 +1126,28 @@
       <c r="J17" s="9"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>11</v>
-      </c>
+    <row r="18" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="12">
         <v>15</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>11</v>
+    <row r="19" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="12">
         <v>16</v>
@@ -1128,29 +1155,92 @@
       <c r="E19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="12">
+        <v>17</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12">
+        <v>19</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C11:C13"/>
+  <mergeCells count="10">
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B16:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
